--- a/the_Equalizer_Bot/Data/data.xlsx
+++ b/the_Equalizer_Bot/Data/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,20 @@
           <t>Selection</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Фильмы на вечер</t>
-        </is>
+          <t>К кому идем в гости?</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -455,19 +463,18 @@
           <t>Музыка для вечеринок</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>К кому идем в гости?</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Имя для группы в этом месяце</t>
-        </is>
+          <t>Фильмы на вечер</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +512,11 @@
           <t>Proposal</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +534,9 @@
           <t>Война миров</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +554,9 @@
           <t>Пятый элемент</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -553,8 +571,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Аватар</t>
-        </is>
+          <t>Аватар 1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -570,25 +591,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Судья Дредд</t>
-        </is>
+          <t>Аватар 2 Путь воды</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Музыка для вечеринок</t>
+          <t>Фильмы на вечер</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ABBA</t>
-        </is>
+          <t>Судья Дредд</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -599,30 +626,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Илья</t>
+          <t>Вася</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ozzy Osbourne</t>
-        </is>
+          <t>ABBA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>К кому идем в гости?</t>
+          <t>Музыка для вечеринок</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>К Васе</t>
-        </is>
+          <t>Ozzy Osbourne</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -633,13 +666,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Петя</t>
+          <t>Вася</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>К Пете</t>
-        </is>
+          <t>К Васе</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -650,13 +686,116 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Илья</t>
+          <t>Петя</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>К Пете</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>К кому идем в гости?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>К Илье</t>
         </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Фильмы на вечер</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Аватар: Пламя и пепел</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Фильмы на вечер</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Star Trek</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Фильмы на вечер</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Star Trek: Возмездие</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Фильмы на вечер</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Илья</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Star Trek: Бесконечность</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/the_Equalizer_Bot/Data/data.xlsx
+++ b/the_Equalizer_Bot/Data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ost\PycharmProjects\My_Telegtam_Bots\the_Equalizer_Bot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OstCh\PycharmProjects\TG_Bots_Project\the_Equalizer_Bot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3017ED-E35B-4655-A938-CDEC0E85C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21B15D9-EEA7-4804-8017-5A6D68571155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="2952" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="3315" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Selections" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Selection</t>
   </si>
   <si>
     <t>Current</t>
-  </si>
-  <si>
-    <t>К кому идем в гости?</t>
-  </si>
-  <si>
-    <t>Музыка для вечеринок</t>
-  </si>
-  <si>
-    <t>Фильмы на вечер</t>
   </si>
   <si>
     <t>User</t>
@@ -51,63 +42,6 @@
   </si>
   <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>Вася</t>
-  </si>
-  <si>
-    <t>Война миров</t>
-  </si>
-  <si>
-    <t>Петя</t>
-  </si>
-  <si>
-    <t>Пятый элемент</t>
-  </si>
-  <si>
-    <t>Илья</t>
-  </si>
-  <si>
-    <t>Аватар 1</t>
-  </si>
-  <si>
-    <t>Аватар 2 Путь воды</t>
-  </si>
-  <si>
-    <t>Судья Дредд</t>
-  </si>
-  <si>
-    <t>ABBA</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>К Васе</t>
-  </si>
-  <si>
-    <t>К Пете</t>
-  </si>
-  <si>
-    <t>К Илье</t>
-  </si>
-  <si>
-    <t>Аватар: Пламя и пепел</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star Trek: Возмездие</t>
-  </si>
-  <si>
-    <t>Star Trek: Бесконечность</t>
-  </si>
-  <si>
-    <t>&lt;a href="tg://user?id=1862607591"&gt;Остап Чеботарев&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Маска</t>
   </si>
 </sst>
 </file>
@@ -470,41 +404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -515,234 +425,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,14 +457,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
